--- a/Orari_Tirocinio.xlsx
+++ b/Orari_Tirocinio.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://univr-my.sharepoint.com/personal/fabrizio_bassan_studenti_univr_it/Documents/Tirocinio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="99" documentId="13_ncr:4000b_{5EBF3343-73A4-4B74-882D-2B51A1722D93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B59A5018-2787-460C-9D7E-A6ACA2B8A112}"/>
+  <xr:revisionPtr revIDLastSave="105" documentId="13_ncr:4000b_{5EBF3343-73A4-4B74-882D-2B51A1722D93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A2B0978F-6C48-403F-8EA3-76E52307B618}"/>
   <bookViews>
     <workbookView xWindow="11400" yWindow="3945" windowWidth="38700" windowHeight="15525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
   <si>
     <t>Giorno</t>
   </si>
@@ -74,7 +74,7 @@
     <numFmt numFmtId="164" formatCode="[h]:mm;@"/>
     <numFmt numFmtId="165" formatCode="[h]:ss;@"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -133,6 +133,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -204,7 +211,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -217,6 +224,7 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="7" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Calcolo" xfId="1" builtinId="22"/>
@@ -538,7 +546,7 @@
   <dimension ref="A1:T106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -604,7 +612,7 @@
       </c>
       <c r="I2" s="10">
         <f>SUM(G2:G100)</f>
-        <v>2.3368055555555554</v>
+        <v>2.4618055555555554</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -1055,7 +1063,7 @@
         <v>0.4375</v>
       </c>
       <c r="G17" s="6">
-        <f>(E17-D17)</f>
+        <f t="shared" ref="G17:G23" si="1">(E17-D17)</f>
         <v>7.2916666666666685E-2</v>
       </c>
       <c r="H17" s="8">
@@ -1083,7 +1091,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="G18" s="7">
-        <f>(E18-D18)</f>
+        <f t="shared" si="1"/>
         <v>0.17708333333333337</v>
       </c>
       <c r="H18" s="2"/>
@@ -1117,7 +1125,7 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="G19" s="7">
-        <f>(E19-D19)</f>
+        <f t="shared" si="1"/>
         <v>0.16666666666666669</v>
       </c>
       <c r="H19" s="5">
@@ -1145,7 +1153,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="G20" s="7">
-        <f>(E20-D20)</f>
+        <f t="shared" si="1"/>
         <v>0.10416666666666663</v>
       </c>
       <c r="H20" s="2"/>
@@ -1179,7 +1187,7 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="G21" s="7">
-        <f>(E21-D21)</f>
+        <f t="shared" si="1"/>
         <v>0.16666666666666663</v>
       </c>
       <c r="H21" s="2"/>
@@ -1213,7 +1221,7 @@
         <v>0.63541666666666663</v>
       </c>
       <c r="G22" s="7">
-        <f>(E22-D22)</f>
+        <f t="shared" si="1"/>
         <v>0.26041666666666663</v>
       </c>
       <c r="H22" s="2"/>
@@ -1231,10 +1239,25 @@
       <c r="T22" s="11"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="G23" s="7"/>
+      <c r="A23" s="3">
+        <v>31</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="3">
+        <v>2022</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="G23" s="7">
+        <f t="shared" si="1"/>
+        <v>0.125</v>
+      </c>
       <c r="H23" s="2"/>
       <c r="I23" s="11"/>
       <c r="J23" s="11"/>
@@ -1253,6 +1276,7 @@
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
+      <c r="E24" s="12"/>
       <c r="G24" s="7"/>
       <c r="H24" s="2"/>
       <c r="I24" s="11"/>

--- a/Orari_Tirocinio.xlsx
+++ b/Orari_Tirocinio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://univr-my.sharepoint.com/personal/fabrizio_bassan_studenti_univr_it/Documents/Tirocinio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="105" documentId="13_ncr:4000b_{5EBF3343-73A4-4B74-882D-2B51A1722D93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A2B0978F-6C48-403F-8EA3-76E52307B618}"/>
+  <xr:revisionPtr revIDLastSave="306" documentId="13_ncr:4000b_{5EBF3343-73A4-4B74-882D-2B51A1722D93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF5751C9-2A9C-4B18-A319-5F86C674AE86}"/>
   <bookViews>
-    <workbookView xWindow="11400" yWindow="3945" windowWidth="38700" windowHeight="15525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="12">
   <si>
     <t>Giorno</t>
   </si>
@@ -51,6 +51,12 @@
     <t>Ore Parziali</t>
   </si>
   <si>
+    <t>Ore Giornaliere</t>
+  </si>
+  <si>
+    <t>Ore Totali</t>
+  </si>
+  <si>
     <t>Maggio</t>
   </si>
   <si>
@@ -60,10 +66,7 @@
     <t>Luglio</t>
   </si>
   <si>
-    <t>Ore Totali</t>
-  </si>
-  <si>
-    <t>Ore Giornaliere</t>
+    <t>Agosto</t>
   </si>
 </sst>
 </file>
@@ -74,7 +77,7 @@
     <numFmt numFmtId="164" formatCode="[h]:mm;@"/>
     <numFmt numFmtId="165" formatCode="[h]:ss;@"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -136,6 +139,12 @@
     </font>
     <font>
       <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -204,14 +213,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -221,16 +231,20 @@
     <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="20" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="Calcolo" xfId="1" builtinId="22"/>
     <cellStyle name="Cella da controllare" xfId="2" builtinId="23"/>
     <cellStyle name="Input" xfId="4" builtinId="20"/>
     <cellStyle name="Normale" xfId="0" builtinId="0" customBuiltin="1"/>
+    <cellStyle name="Percentuale" xfId="5" builtinId="5"/>
     <cellStyle name="Testo descrittivo" xfId="3" builtinId="53"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -543,10 +557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T106"/>
+  <dimension ref="A1:AF106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -559,7 +573,7 @@
     <col min="9" max="9" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -579,18 +593,18 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" s="3">
         <v>2021</v>
@@ -610,12 +624,12 @@
         <f>SUM(G2:G3)</f>
         <v>0.12847222222222221</v>
       </c>
-      <c r="I2" s="10">
+      <c r="I2" s="9">
         <f>SUM(G2:G100)</f>
-        <v>2.4618055555555554</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+        <v>5.583333333333333</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -631,14 +645,17 @@
         <v>8.6805555555555469E-2</v>
       </c>
       <c r="H3" s="2"/>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="I3" s="11">
+        <f>(INT(I2*1440)*100)/(150*60)/100</f>
+        <v>0.89333333333333331</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>11</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C4" s="3">
         <v>2021</v>
@@ -658,20 +675,9 @@
         <f>SUM(G4:G7)</f>
         <v>0.30555555555555552</v>
       </c>
-      <c r="I4" s="9"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="I4" s="13"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -687,20 +693,9 @@
         <v>7.638888888888884E-2</v>
       </c>
       <c r="H5" s="2"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="11"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -716,20 +711,9 @@
         <v>0.14583333333333337</v>
       </c>
       <c r="H6" s="2"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -745,25 +729,14 @@
         <v>4.166666666666663E-2</v>
       </c>
       <c r="H7" s="2"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>12</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C8" s="3">
         <v>2021</v>
@@ -783,20 +756,9 @@
         <f>SUM(G8:G9)</f>
         <v>0.21875000000000006</v>
       </c>
-      <c r="I8" s="9"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -812,25 +774,14 @@
         <v>0.11458333333333337</v>
       </c>
       <c r="H9" s="2"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>16</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C10" s="3">
         <v>2021</v>
@@ -846,26 +797,14 @@
         <f t="shared" si="0"/>
         <v>7.291666666666663E-2</v>
       </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>11</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C11" s="3">
         <v>2021</v>
@@ -882,25 +821,15 @@
         <v>8.3333333333333259E-2</v>
       </c>
       <c r="H11" s="2"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
-      <c r="S11" s="11"/>
-      <c r="T11" s="11"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="I11" s="1"/>
+      <c r="K11" s="10"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>20</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C12" s="3">
         <v>2021</v>
@@ -920,20 +849,9 @@
         <f>SUM(G12:G14)</f>
         <v>0.35069444444444442</v>
       </c>
-      <c r="I12" s="9"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="11"/>
-      <c r="T12" s="11"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D13" s="1">
         <v>0.53472222222222221</v>
       </c>
@@ -946,20 +864,9 @@
         <v>9.027777777777779E-2</v>
       </c>
       <c r="H13" s="2"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="11"/>
-      <c r="T13" s="11"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D14" s="1">
         <v>0.66666666666666663</v>
       </c>
@@ -972,25 +879,14 @@
         <v>0.125</v>
       </c>
       <c r="H14" s="2"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="11"/>
-      <c r="S14" s="11"/>
-      <c r="T14" s="11"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>21</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C15" s="3">
         <v>2021</v>
@@ -1009,20 +905,8 @@
         <f>SUM(G15,G16)</f>
         <v>0.22916666666666663</v>
       </c>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="11"/>
-      <c r="T15" s="11"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D16" s="1">
         <v>0.58333333333333337</v>
       </c>
@@ -1033,25 +917,13 @@
         <f t="shared" si="0"/>
         <v>0.10416666666666663</v>
       </c>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="11"/>
-      <c r="T16" s="11"/>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>23</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C17" s="3">
         <v>2021</v>
@@ -1063,27 +935,15 @@
         <v>0.4375</v>
       </c>
       <c r="G17" s="6">
-        <f t="shared" ref="G17:G23" si="1">(E17-D17)</f>
+        <f t="shared" ref="G17:G76" si="1">(E17-D17)</f>
         <v>7.2916666666666685E-2</v>
       </c>
       <c r="H17" s="8">
         <f>SUM(G17,G18)</f>
         <v>0.25000000000000006</v>
       </c>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="11"/>
-      <c r="T17" s="11"/>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D18" s="1">
         <v>0.53125</v>
       </c>
@@ -1095,25 +955,13 @@
         <v>0.17708333333333337</v>
       </c>
       <c r="H18" s="2"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="11"/>
-      <c r="T18" s="11"/>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>26</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C19" s="3">
         <v>2021</v>
@@ -1121,7 +969,7 @@
       <c r="D19" s="1">
         <v>0.35416666666666669</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="1">
         <v>0.52083333333333337</v>
       </c>
       <c r="G19" s="7">
@@ -1132,20 +980,8 @@
         <f>SUM(G19,G20)</f>
         <v>0.27083333333333331</v>
       </c>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="11"/>
-      <c r="S19" s="11"/>
-      <c r="T19" s="11"/>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D20" s="1">
         <v>0.5625</v>
       </c>
@@ -1156,26 +992,15 @@
         <f t="shared" si="1"/>
         <v>0.10416666666666663</v>
       </c>
-      <c r="H20" s="2"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="11"/>
-      <c r="S20" s="11"/>
-      <c r="T20" s="11"/>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H20" s="12"/>
+      <c r="J20" s="10"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>27</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C21" s="3">
         <v>2021</v>
@@ -1183,7 +1008,7 @@
       <c r="D21" s="1">
         <v>0.4375</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="1">
         <v>0.60416666666666663</v>
       </c>
       <c r="G21" s="7">
@@ -1191,25 +1016,14 @@
         <v>0.16666666666666663</v>
       </c>
       <c r="H21" s="2"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="11"/>
-      <c r="S21" s="11"/>
-      <c r="T21" s="11"/>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P21" s="10"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>28</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C22" s="3">
         <v>2021</v>
@@ -1217,7 +1031,7 @@
       <c r="D22" s="1">
         <v>0.375</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="1">
         <v>0.63541666666666663</v>
       </c>
       <c r="G22" s="7">
@@ -1225,28 +1039,16 @@
         <v>0.26041666666666663</v>
       </c>
       <c r="H22" s="2"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="11"/>
-      <c r="S22" s="11"/>
-      <c r="T22" s="11"/>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>31</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C23" s="3">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D23" s="1">
         <v>0.83333333333333337</v>
@@ -1259,473 +1061,770 @@
         <v>0.125</v>
       </c>
       <c r="H23" s="2"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="11"/>
-      <c r="R23" s="11"/>
-      <c r="S23" s="11"/>
-      <c r="T23" s="11"/>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="E24" s="12"/>
-      <c r="G24" s="7"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>3</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="G24" s="7">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
       <c r="H24" s="2"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="11"/>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="11"/>
-      <c r="R24" s="11"/>
-      <c r="S24" s="11"/>
-      <c r="T24" s="11"/>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="11"/>
-      <c r="R25" s="11"/>
-      <c r="S25" s="11"/>
-      <c r="T25" s="11"/>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>4</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G25" s="7">
+        <f t="shared" si="1"/>
+        <v>0.16666666666666669</v>
+      </c>
+      <c r="H25" s="5">
+        <f>SUM(G25,G26)</f>
+        <v>0.29166666666666669</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="11"/>
-      <c r="R26" s="11"/>
-      <c r="S26" s="11"/>
-      <c r="T26" s="11"/>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="11"/>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="11"/>
-      <c r="R27" s="11"/>
-      <c r="S27" s="11"/>
-      <c r="T27" s="11"/>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
-      <c r="O28" s="11"/>
-      <c r="P28" s="11"/>
-      <c r="Q28" s="11"/>
-      <c r="R28" s="11"/>
-      <c r="S28" s="11"/>
-      <c r="T28" s="11"/>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D26" s="1">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="G26" s="7">
+        <f t="shared" si="1"/>
+        <v>0.125</v>
+      </c>
+      <c r="K26" s="15"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>6</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0.4826388888888889</v>
+      </c>
+      <c r="G27" s="7">
+        <f t="shared" si="1"/>
+        <v>0.12152777777777779</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>7</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.4375</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G28" s="7">
+        <f t="shared" si="1"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="H28" s="5">
+        <f t="shared" ref="H28" si="2">SUM(G28,G29)</f>
+        <v>0.1875</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="11"/>
-      <c r="O29" s="11"/>
-      <c r="P29" s="11"/>
-      <c r="Q29" s="11"/>
-      <c r="R29" s="11"/>
-      <c r="S29" s="11"/>
-      <c r="T29" s="11"/>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="11"/>
-      <c r="N30" s="11"/>
-      <c r="O30" s="11"/>
-      <c r="P30" s="11"/>
-      <c r="Q30" s="11"/>
-      <c r="R30" s="11"/>
-      <c r="S30" s="11"/>
-      <c r="T30" s="11"/>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D29" s="1">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="G29" s="7">
+        <f t="shared" si="1"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>8</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="G30" s="7">
+        <f t="shared" si="1"/>
+        <v>0.14583333333333337</v>
+      </c>
+      <c r="H30" s="5">
+        <f>SUM(G30,G31)</f>
+        <v>0.33333333333333337</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="2"/>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="2"/>
+      <c r="D31" s="1">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="G31" s="7">
+        <f t="shared" si="1"/>
+        <v>0.1875</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>9</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G32" s="7">
+        <f t="shared" si="1"/>
+        <v>0.125</v>
+      </c>
+      <c r="H32" s="5">
+        <f t="shared" ref="H32" si="3">SUM(G32,G33)</f>
+        <v>0.27083333333333326</v>
+      </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="2"/>
+      <c r="D33" s="1">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G33" s="7">
+        <f t="shared" si="1"/>
+        <v>0.14583333333333326</v>
+      </c>
+      <c r="H33" s="12"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="G34" s="7"/>
+      <c r="A34" s="3">
+        <v>11</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="G34" s="7">
+        <f t="shared" si="1"/>
+        <v>6.25E-2</v>
+      </c>
       <c r="H34" s="2"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="G35" s="7"/>
+      <c r="A35" s="3">
+        <v>13</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="G35" s="7">
+        <f t="shared" si="1"/>
+        <v>0.15624999999999994</v>
+      </c>
       <c r="H35" s="2"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
-      <c r="G36" s="7"/>
+      <c r="D36" s="1">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="G36" s="7">
+        <f t="shared" si="1"/>
+        <v>8.333333333333337E-2</v>
+      </c>
       <c r="H36" s="2"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="2"/>
+      <c r="A37" s="3">
+        <v>16</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="G37" s="7">
+        <f t="shared" si="1"/>
+        <v>0.14583333333333337</v>
+      </c>
+      <c r="H37" s="5">
+        <f t="shared" ref="H37" si="4">SUM(G37,G38)</f>
+        <v>0.28125000000000011</v>
+      </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
-      <c r="G38" s="7"/>
+      <c r="D38" s="1">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="G38" s="7">
+        <f t="shared" si="1"/>
+        <v>0.13541666666666674</v>
+      </c>
       <c r="H38" s="2"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="G39" s="7"/>
+      <c r="A39" s="3">
+        <v>17</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="G39" s="7">
+        <f t="shared" si="1"/>
+        <v>0.125</v>
+      </c>
       <c r="H39" s="2"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="G40" s="7"/>
+      <c r="A40" s="3">
+        <v>18</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="G40" s="7">
+        <f t="shared" si="1"/>
+        <v>0.16666666666666663</v>
+      </c>
       <c r="H40" s="2"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="2"/>
+      <c r="A41" s="3">
+        <v>19</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G41" s="7">
+        <f t="shared" si="1"/>
+        <v>0.16666666666666669</v>
+      </c>
+      <c r="H41" s="5">
+        <f t="shared" ref="H41:I43" si="5">SUM(G41,G42)</f>
+        <v>0.41666666666666669</v>
+      </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
-      <c r="G42" s="7"/>
+      <c r="D42" s="1">
+        <v>0.5625</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0.8125</v>
+      </c>
+      <c r="G42" s="7">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
       <c r="H42" s="2"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="2"/>
+      <c r="A43" s="3">
+        <v>21</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="E43" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="G43" s="7">
+        <f t="shared" si="1"/>
+        <v>0.125</v>
+      </c>
+      <c r="H43" s="5">
+        <f t="shared" si="5"/>
+        <v>0.29166666666666663</v>
+      </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="2"/>
+      <c r="D44" s="1">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E44" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="G44" s="7">
+        <f t="shared" si="1"/>
+        <v>0.16666666666666663</v>
+      </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="G45" s="7"/>
+      <c r="A45" s="3">
+        <v>23</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0.3125</v>
+      </c>
+      <c r="E45" s="1">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="G45" s="7">
+        <f t="shared" si="1"/>
+        <v>8.3333333333333315E-2</v>
+      </c>
       <c r="H45" s="2"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
-      <c r="G46" s="7"/>
+      <c r="G46" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H46" s="2"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
-      <c r="G47" s="7"/>
+      <c r="G47" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H47" s="2"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
-      <c r="G48" s="7"/>
+      <c r="G48" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H48" s="2"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
-      <c r="G49" s="7"/>
+      <c r="G49" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H49" s="2"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="AF49" s="10"/>
+    </row>
+    <row r="50" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
-      <c r="G50" s="7"/>
+      <c r="G50" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H50" s="2"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
-      <c r="G51" s="7"/>
+      <c r="G51" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H51" s="2"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
-      <c r="G52" s="7"/>
+      <c r="G52" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H52" s="2"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
-      <c r="G53" s="7"/>
+      <c r="G53" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H53" s="2"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
-      <c r="G54" s="7"/>
+      <c r="G54" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H54" s="2"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
-      <c r="G55" s="7"/>
+      <c r="G55" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H55" s="2"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
-      <c r="G56" s="7"/>
+      <c r="G56" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H56" s="2"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
-      <c r="G57" s="7"/>
+      <c r="G57" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H57" s="2"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
-      <c r="G58" s="7"/>
+      <c r="G58" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H58" s="2"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
-      <c r="G59" s="7"/>
+      <c r="G59" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H59" s="2"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
-      <c r="G60" s="7"/>
+      <c r="G60" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H60" s="2"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
-      <c r="G61" s="7"/>
+      <c r="G61" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H61" s="2"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
-      <c r="G62" s="7"/>
+      <c r="G62" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H62" s="2"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
-      <c r="G63" s="7"/>
+      <c r="G63" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H63" s="2"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
-      <c r="G64" s="7"/>
+      <c r="G64" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H64" s="2"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
-      <c r="G65" s="7"/>
+      <c r="G65" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H65" s="2"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
-      <c r="G66" s="7"/>
+      <c r="G66" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H66" s="2"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
-      <c r="G67" s="7"/>
+      <c r="G67" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H67" s="2"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
-      <c r="G68" s="7"/>
+      <c r="G68" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H68" s="2"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
-      <c r="G69" s="7"/>
+      <c r="G69" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H69" s="2"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
-      <c r="G70" s="7"/>
+      <c r="G70" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H70" s="2"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
-      <c r="G71" s="7"/>
+      <c r="G71" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H71" s="2"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
-      <c r="G72" s="7"/>
+      <c r="G72" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H72" s="2"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
-      <c r="G73" s="7"/>
+      <c r="G73" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H73" s="2"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
-      <c r="G74" s="7"/>
+      <c r="G74" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H74" s="2"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
-      <c r="G75" s="7"/>
+      <c r="G75" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H75" s="2"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
-      <c r="G76" s="7"/>
+      <c r="G76" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H76" s="2"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
